--- a/src/SimpleKnowledgeReactome.xlsx
+++ b/src/SimpleKnowledgeReactome.xlsx
@@ -8,18 +8,18 @@
     <sheet state="visible" name="SetupInstructions" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_F4E0EDC9_3296_435C_8D18_89A1D1A027FA_.wvu.FilterData">SimpleKnowledgeEditor!$A$1:$F$70</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_F4E0EDC9_3296_435C_8D18_89A1D1A027FA_.wvu.FilterData">'DEMO SimpleKnowledgeEditor'!$A$1:$R$175</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_7F1D9FD6_BC89_4BF3_A1ED_5DD6543D33BF_.wvu.FilterData">SimpleKnowledgeEditor!$A$1:$F$71</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_7F1D9FD6_BC89_4BF3_A1ED_5DD6543D33BF_.wvu.FilterData">'DEMO SimpleKnowledgeEditor'!$A$1:$R$175</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{F4E0EDC9-3296-435C-8D18-89A1D1A027FA}" name="marker"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7F1D9FD6-BC89-4BF3-A1ED-5DD6543D33BF}" name="marker"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="97">
   <si>
     <t>term</t>
   </si>
@@ -48,7 +48,7 @@
     <t>Reactome valueset root</t>
   </si>
   <si>
-    <t>Reactome_event</t>
+    <t>Event</t>
   </si>
   <si>
     <t>REACTOME_VS:C0001</t>
@@ -57,28 +57,64 @@
     <t>Member of the Reactome event hierarchy</t>
   </si>
   <si>
-    <t>TopLevelPathway</t>
+    <t>Pathway</t>
   </si>
   <si>
     <t>REACTOME_VS:C0002</t>
   </si>
   <si>
-    <t>Pathway</t>
+    <t>CellLineagePath</t>
   </si>
   <si>
     <t>REACTOME_VS:C0003</t>
   </si>
   <si>
-    <t>Reaction</t>
+    <t>TopLevelPathway</t>
   </si>
   <si>
     <t>REACTOME_VS:C0004</t>
   </si>
   <si>
+    <t>ReactionLikeEvent</t>
+  </si>
+  <si>
+    <t>REACTOME_VS:C0005</t>
+  </si>
+  <si>
     <t>BlackBoxEvent</t>
   </si>
   <si>
-    <t>REACTOME_VS:C0005</t>
+    <t>REACTOME_VS:C0006</t>
+  </si>
+  <si>
+    <t>CellDevelopmentStep</t>
+  </si>
+  <si>
+    <t>REACTOME_VS:C0007</t>
+  </si>
+  <si>
+    <t>Depolymerization</t>
+  </si>
+  <si>
+    <t>REACTOME_VS:C0008</t>
+  </si>
+  <si>
+    <t>FailedReaction</t>
+  </si>
+  <si>
+    <t>REACTOME_VS:C0009</t>
+  </si>
+  <si>
+    <t>Polymerization</t>
+  </si>
+  <si>
+    <t>REACTOME_VS:C0010</t>
+  </si>
+  <si>
+    <t>Reaction</t>
+  </si>
+  <si>
+    <t>REACTOME_VS:C0011</t>
   </si>
   <si>
     <t>isa</t>
@@ -768,7 +804,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -789,7 +825,7 @@
       <c r="D6" s="9"/>
       <c r="E6" s="7"/>
       <c r="F6" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="8"/>
@@ -821,12 +857,18 @@
       <c r="M7" s="8"/>
     </row>
     <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="5"/>
-      <c r="B8" s="6"/>
+      <c r="A8" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="C8" s="7"/>
       <c r="D8" s="9"/>
       <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
       <c r="I8" s="8"/>
@@ -836,12 +878,18 @@
       <c r="M8" s="8"/>
     </row>
     <row r="9" ht="15.75" customHeight="1">
-      <c r="A9" s="5"/>
-      <c r="B9" s="6"/>
+      <c r="A9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>23</v>
+      </c>
       <c r="C9" s="7"/>
       <c r="D9" s="9"/>
       <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
       <c r="I9" s="8"/>
@@ -851,12 +899,18 @@
       <c r="M9" s="8"/>
     </row>
     <row r="10" ht="15.75" customHeight="1">
-      <c r="A10" s="5"/>
-      <c r="B10" s="6"/>
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>25</v>
+      </c>
       <c r="C10" s="7"/>
       <c r="D10" s="9"/>
       <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
@@ -866,12 +920,18 @@
       <c r="M10" s="8"/>
     </row>
     <row r="11" ht="15.75" customHeight="1">
-      <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>27</v>
+      </c>
       <c r="C11" s="7"/>
       <c r="D11" s="9"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
@@ -881,12 +941,18 @@
       <c r="M11" s="8"/>
     </row>
     <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="C12" s="7"/>
       <c r="D12" s="9"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G12" s="8"/>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -896,12 +962,18 @@
       <c r="M12" s="8"/>
     </row>
     <row r="13" ht="15.75" customHeight="1">
-      <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
+      <c r="A13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>31</v>
+      </c>
       <c r="C13" s="7"/>
       <c r="D13" s="9"/>
       <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1874,7 +1946,7 @@
       <c r="A78" s="5"/>
       <c r="B78" s="6"/>
       <c r="C78" s="7"/>
-      <c r="D78" s="7"/>
+      <c r="D78" s="9"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7"/>
       <c r="G78" s="8"/>
@@ -2279,7 +2351,7 @@
       <c r="A105" s="5"/>
       <c r="B105" s="6"/>
       <c r="C105" s="7"/>
-      <c r="D105" s="9"/>
+      <c r="D105" s="7"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
       <c r="G105" s="8"/>
@@ -14815,31 +14887,48 @@
       <c r="L940" s="8"/>
       <c r="M940" s="8"/>
     </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="A941" s="5"/>
+      <c r="B941" s="6"/>
+      <c r="C941" s="7"/>
+      <c r="D941" s="9"/>
+      <c r="E941" s="7"/>
+      <c r="F941" s="7"/>
+      <c r="G941" s="8"/>
+      <c r="H941" s="8"/>
+      <c r="I941" s="8"/>
+      <c r="J941" s="8"/>
+      <c r="K941" s="8"/>
+      <c r="L941" s="8"/>
+      <c r="M941" s="8"/>
+    </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F4E0EDC9-3296-435C-8D18-89A1D1A027FA}" filter="1" showAutoFilter="1">
-      <autoFilter ref="$A$1:$F$70">
+    <customSheetView guid="{7F1D9FD6-BC89-4BF3-A1ED-5DD6543D33BF}" filter="1" showAutoFilter="1">
+      <autoFilter ref="$A$1:$F$71">
         <filterColumn colId="5">
           <filters>
+            <filter val="Pathway"/>
             <filter val="REACTOME_VS"/>
-            <filter val="Reactome_event"/>
+            <filter val="Event"/>
+            <filter val="ReactionLikeEvent"/>
           </filters>
         </filterColumn>
       </autoFilter>
     </customSheetView>
   </customSheetViews>
   <dataValidations>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="F2:M940">
-      <formula1>IF(SUM(ArrayFormula(COUNTIF(SPLIT(F2,","), $A$1:$A940)))-(LEN(F2)-LEN(SUBSTITUTE(F2,",",""))+1)=0,TRUE,FALSE)</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="F2:M941">
+      <formula1>IF(SUM(ArrayFormula(COUNTIF(SPLIT(F2,","), $A$1:$A941)))-(LEN(F2)-LEN(SUBSTITUTE(F2,",",""))+1)=0,TRUE,FALSE)</formula1>
     </dataValidation>
     <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="C1:M1">
       <formula1>COUNTIF($A$1:M$1, C1)&lt;=1</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="A1:A940">
-      <formula1>COUNTIF($A$1:$A940, A1)&lt;=1</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="A1:A941">
+      <formula1>COUNTIF($A$1:$A941, A1)&lt;=1</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B1:B35 B36:C64 B65:B940">
-      <formula1>COUNTIF($B$1:$B940, B1)&lt;=1</formula1>
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" showErrorMessage="1" sqref="B1:B36 B37:C65 B66:B941">
+      <formula1>COUNTIF($B$1:$B941, B1)&lt;=1</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions/>
@@ -14899,10 +14988,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
@@ -14930,13 +15019,13 @@
     </row>
     <row r="2" ht="15.75" customHeight="1">
       <c r="A2" s="10" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6"/>
@@ -14968,18 +15057,18 @@
     </row>
     <row r="3" ht="15.75" customHeight="1">
       <c r="A3" s="10" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D3" s="6"/>
       <c r="E3" s="6"/>
       <c r="F3" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G3" s="15"/>
       <c r="H3" s="16"/>
@@ -15008,22 +15097,22 @@
     </row>
     <row r="4" ht="15.75" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="F4" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G4" s="15"/>
       <c r="H4" s="16"/>
@@ -15052,18 +15141,18 @@
     </row>
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="10" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C5" s="18"/>
       <c r="D5" s="6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E5" s="19"/>
       <c r="F5" s="17" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="16"/>
@@ -15092,18 +15181,18 @@
     </row>
     <row r="6" ht="15.75" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="20" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="16"/>
@@ -15132,18 +15221,18 @@
     </row>
     <row r="7" ht="15.75" customHeight="1">
       <c r="A7" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="17" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="16"/>
@@ -15172,16 +15261,16 @@
     </row>
     <row r="8" ht="15.75" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="21"/>
       <c r="F8" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G8" s="22"/>
       <c r="H8" s="16"/>
@@ -15210,21 +15299,21 @@
     </row>
     <row r="9" ht="15.75" customHeight="1">
       <c r="A9" s="10" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C9" s="17"/>
       <c r="D9" s="17" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="17" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="H9" s="16"/>
       <c r="I9" s="16"/>
@@ -15252,16 +15341,16 @@
     </row>
     <row r="10" ht="15.75" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="23"/>
       <c r="E10" s="21"/>
       <c r="F10" s="17" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="16"/>
@@ -15290,16 +15379,16 @@
     </row>
     <row r="11" ht="15.75" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6"/>
       <c r="F11" s="17" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G11" s="22"/>
       <c r="H11" s="16"/>
@@ -15328,16 +15417,16 @@
     </row>
     <row r="12" ht="15.75" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="C12" s="19"/>
       <c r="D12" s="6"/>
       <c r="E12" s="19"/>
       <c r="F12" s="17" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="16"/>
@@ -15366,16 +15455,16 @@
     </row>
     <row r="13" ht="15.75" customHeight="1">
       <c r="A13" s="10" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
       <c r="F13" s="17" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="16"/>
@@ -15404,16 +15493,16 @@
     </row>
     <row r="14" ht="15.75" customHeight="1">
       <c r="A14" s="10" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="19"/>
       <c r="F14" s="17" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="G14" s="22"/>
       <c r="H14" s="16"/>
@@ -15442,16 +15531,16 @@
     </row>
     <row r="15" ht="15.75" customHeight="1">
       <c r="A15" s="10" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="19"/>
       <c r="E15" s="19"/>
       <c r="F15" s="17" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="G15" s="22"/>
       <c r="H15" s="16"/>
@@ -47127,7 +47216,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F4E0EDC9-3296-435C-8D18-89A1D1A027FA}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{7F1D9FD6-BC89-4BF3-A1ED-5DD6543D33BF}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$R$175">
         <filterColumn colId="5">
           <filters>
@@ -47180,7 +47269,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="10" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="B1" s="31"/>
       <c r="C1" s="32"/>
@@ -47210,7 +47299,7 @@
     </row>
     <row r="2">
       <c r="A2" s="10" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="B2" s="33"/>
       <c r="C2" s="34"/>
@@ -47240,7 +47329,7 @@
     </row>
     <row r="3">
       <c r="A3" s="22" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="34"/>
@@ -47270,7 +47359,7 @@
     </row>
     <row r="4">
       <c r="A4" s="22" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="B4" s="31"/>
       <c r="C4" s="32"/>
@@ -47300,7 +47389,7 @@
     </row>
     <row r="5">
       <c r="A5" s="22" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="B5" s="31"/>
       <c r="C5" s="32"/>
@@ -47330,7 +47419,7 @@
     </row>
     <row r="6">
       <c r="A6" s="22" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="B6" s="31"/>
       <c r="C6" s="32"/>
@@ -47388,7 +47477,7 @@
     </row>
     <row r="8">
       <c r="A8" s="22" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="B8" s="31"/>
       <c r="C8" s="32"/>
@@ -47418,7 +47507,7 @@
     </row>
     <row r="9">
       <c r="A9" s="35" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="32"/>
@@ -47448,7 +47537,7 @@
     </row>
     <row r="10">
       <c r="A10" s="22" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B10" s="31"/>
       <c r="C10" s="32"/>
@@ -47478,7 +47567,7 @@
     </row>
     <row r="11">
       <c r="A11" s="22" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B11" s="31"/>
       <c r="C11" s="32"/>
@@ -47536,7 +47625,7 @@
     </row>
     <row r="13">
       <c r="A13" s="22" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="B13" s="31"/>
       <c r="C13" s="32"/>
@@ -47566,7 +47655,7 @@
     </row>
     <row r="14">
       <c r="A14" s="35" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="B14" s="31"/>
       <c r="C14" s="32"/>
@@ -47596,7 +47685,7 @@
     </row>
     <row r="15">
       <c r="A15" s="22" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B15" s="31"/>
       <c r="C15" s="32"/>
@@ -47654,7 +47743,7 @@
     </row>
     <row r="17">
       <c r="A17" s="22" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="32"/>
@@ -47684,7 +47773,7 @@
     </row>
     <row r="18">
       <c r="A18" s="35" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="B18" s="31"/>
       <c r="C18" s="32"/>
@@ -47714,7 +47803,7 @@
     </row>
     <row r="19">
       <c r="A19" s="22" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="B19" s="31"/>
       <c r="C19" s="32"/>
@@ -47772,7 +47861,7 @@
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B21" s="31"/>
       <c r="C21" s="32"/>
@@ -47802,7 +47891,7 @@
     </row>
     <row r="22">
       <c r="A22" s="22" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="B22" s="31"/>
       <c r="C22" s="32"/>
@@ -47832,7 +47921,7 @@
     </row>
     <row r="23">
       <c r="A23" s="22" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B23" s="31"/>
       <c r="C23" s="32"/>
@@ -47862,7 +47951,7 @@
     </row>
     <row r="24">
       <c r="A24" s="22" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B24" s="31"/>
       <c r="C24" s="32"/>
@@ -47892,7 +47981,7 @@
     </row>
     <row r="25">
       <c r="A25" s="22" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="B25" s="31"/>
       <c r="C25" s="32"/>
@@ -47922,7 +48011,7 @@
     </row>
     <row r="26">
       <c r="A26" s="22" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="B26" s="31"/>
       <c r="C26" s="32"/>
@@ -47952,7 +48041,7 @@
     </row>
     <row r="27">
       <c r="A27" s="22" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B27" s="31"/>
       <c r="C27" s="32"/>
@@ -48010,7 +48099,7 @@
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="B29" s="31"/>
       <c r="C29" s="32"/>
@@ -48055,7 +48144,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="30" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
@@ -48080,13 +48169,13 @@
     </row>
     <row r="31">
       <c r="A31" s="10" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="B31" s="22" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="C31" s="22" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D31" s="22"/>
       <c r="E31" s="22"/>
@@ -48114,18 +48203,18 @@
     </row>
     <row r="32">
       <c r="A32" s="10" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B32" s="22" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C32" s="22" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D32" s="22"/>
       <c r="E32" s="22"/>
       <c r="F32" s="36" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G32" s="32"/>
       <c r="H32" s="32"/>
@@ -48150,22 +48239,22 @@
     </row>
     <row r="33">
       <c r="A33" s="10" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B33" s="22" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C33" s="22" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E33" s="22" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="F33" s="36" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="G33" s="32"/>
       <c r="H33" s="32"/>
@@ -48190,18 +48279,18 @@
     </row>
     <row r="34">
       <c r="A34" s="10" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="B34" s="22" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="22" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="E34" s="8"/>
       <c r="F34" s="36" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="G34" s="32"/>
       <c r="H34" s="32"/>
@@ -48226,18 +48315,18 @@
     </row>
     <row r="35">
       <c r="A35" s="10" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="B35" s="22" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C35" s="22"/>
       <c r="D35" s="22"/>
       <c r="E35" s="22" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="F35" s="36" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="G35" s="32"/>
       <c r="H35" s="32"/>
@@ -48262,18 +48351,18 @@
     </row>
     <row r="36">
       <c r="A36" s="10" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B36" s="22" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C36" s="36" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D36" s="36"/>
       <c r="E36" s="36"/>
       <c r="F36" s="36" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>

--- a/src/SimpleKnowledgeReactome.xlsx
+++ b/src/SimpleKnowledgeReactome.xlsx
@@ -8,12 +8,12 @@
     <sheet state="visible" name="SetupInstructions" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="Z_7F1D9FD6_BC89_4BF3_A1ED_5DD6543D33BF_.wvu.FilterData">SimpleKnowledgeEditor!$A$1:$F$71</definedName>
-    <definedName hidden="1" localSheetId="1" name="Z_7F1D9FD6_BC89_4BF3_A1ED_5DD6543D33BF_.wvu.FilterData">'DEMO SimpleKnowledgeEditor'!$A$1:$R$175</definedName>
+    <definedName hidden="1" localSheetId="0" name="Z_6892ADE2_8675_4BDC_8049_2FE4CAF1A901_.wvu.FilterData">SimpleKnowledgeEditor!$A$1:$F$71</definedName>
+    <definedName hidden="1" localSheetId="1" name="Z_6892ADE2_8675_4BDC_8049_2FE4CAF1A901_.wvu.FilterData">'DEMO SimpleKnowledgeEditor'!$A$1:$R$175</definedName>
   </definedNames>
   <calcPr/>
   <customWorkbookViews>
-    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{7F1D9FD6-BC89-4BF3-A1ED-5DD6543D33BF}" name="marker"/>
+    <customWorkbookView activeSheetId="0" maximized="1" windowHeight="0" windowWidth="0" guid="{6892ADE2-8675-4BDC-8049-2FE4CAF1A901}" name="marker"/>
   </customWorkbookViews>
 </workbook>
 </file>
@@ -93,7 +93,7 @@
     <t>REACTOME_VS:C0007</t>
   </si>
   <si>
-    <t>Depolymerization</t>
+    <t>Depolymerisation</t>
   </si>
   <si>
     <t>REACTOME_VS:C0008</t>
@@ -105,7 +105,7 @@
     <t>REACTOME_VS:C0009</t>
   </si>
   <si>
-    <t>Polymerization</t>
+    <t>Polymerisation</t>
   </si>
   <si>
     <t>REACTOME_VS:C0010</t>
@@ -14904,7 +14904,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7F1D9FD6-BC89-4BF3-A1ED-5DD6543D33BF}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{6892ADE2-8675-4BDC-8049-2FE4CAF1A901}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$F$71">
         <filterColumn colId="5">
           <filters>
@@ -47216,7 +47216,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{7F1D9FD6-BC89-4BF3-A1ED-5DD6543D33BF}" filter="1" showAutoFilter="1">
+    <customSheetView guid="{6892ADE2-8675-4BDC-8049-2FE4CAF1A901}" filter="1" showAutoFilter="1">
       <autoFilter ref="$A$1:$R$175">
         <filterColumn colId="5">
           <filters>
